--- a/src/main/resources/task_3 Collenctions.xlsx
+++ b/src/main/resources/task_3 Collenctions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="31">
   <si>
     <t>Random addition, ms</t>
   </si>
@@ -96,12 +96,6 @@
     <t>ConcurrentHashMap</t>
   </si>
   <si>
-    <t>Вопросы задавать здесь</t>
-  </si>
-  <si>
-    <t>https://docs.google.com/document/d/1SgO8p9qrMnV8snUui-N5SjBbBhDuD184F7dxDOMXgXM/edit?usp=sharing</t>
-  </si>
-  <si>
     <t>№ of elements</t>
   </si>
   <si>
@@ -114,14 +108,14 @@
     <t xml:space="preserve"> -</t>
   </si>
   <si>
-    <t xml:space="preserve"> +/-</t>
+    <t xml:space="preserve"> +</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -147,13 +141,26 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="5">
@@ -217,14 +224,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -271,10 +279,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Хороший" xfId="2" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -578,8 +590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -622,7 +634,7 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B3" s="7">
         <v>10000000</v>
@@ -739,28 +751,28 @@
         <v>4</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J8" s="9"/>
     </row>
@@ -769,28 +781,28 @@
         <v>5</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J9" s="9"/>
     </row>
@@ -799,28 +811,28 @@
         <v>16</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F10" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I10" s="8" t="s">
         <v>29</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>31</v>
       </c>
       <c r="J10" s="9"/>
     </row>
@@ -829,28 +841,28 @@
         <v>17</v>
       </c>
       <c r="B11" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I11" s="8" t="s">
         <v>29</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="I11" s="8" t="s">
-        <v>31</v>
       </c>
       <c r="J11" s="9"/>
     </row>
@@ -859,28 +871,28 @@
         <v>18</v>
       </c>
       <c r="B12" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>30</v>
-      </c>
       <c r="I12" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J12" s="9"/>
     </row>
@@ -927,25 +939,25 @@
         <v>23</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E15" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H15" s="8" t="s">
         <v>29</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>32</v>
       </c>
       <c r="I15" s="13"/>
       <c r="J15" s="9"/>
@@ -955,25 +967,25 @@
         <v>24</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D16" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="E16" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>30</v>
-      </c>
       <c r="H16" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I16" s="13"/>
       <c r="J16" s="9"/>
@@ -983,25 +995,25 @@
         <v>25</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F17" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" s="8" t="s">
         <v>29</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>32</v>
       </c>
       <c r="I17" s="13"/>
       <c r="J17" s="9"/>
@@ -1063,22 +1075,15 @@
       <c r="H23" s="12"/>
       <c r="I23" s="12"/>
     </row>
-    <row r="36" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
-        <v>26</v>
-      </c>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="2"/>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
-        <v>27</v>
-      </c>
+      <c r="A37" s="3"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A37" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
 </worksheet>
 </file>
 
